--- a/Análises Esportivas/editável_ciclos.xlsx
+++ b/Análises Esportivas/editável_ciclos.xlsx
@@ -363,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -627,6 +627,13 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -660,7 +667,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -997,6 +1004,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="9" fillId="4" borderId="23" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1582,7 +1593,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="N48" activeCellId="0" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2497,7 +2508,8 @@
         <v>0</v>
       </c>
       <c r="D21" s="66" t="n">
-        <v>1</v>
+        <f aca="false">D20*(1+J20)</f>
+        <v>6.14661199889654</v>
       </c>
       <c r="E21" s="65" t="n">
         <f aca="false">C21*J21</f>
@@ -2505,7 +2517,7 @@
       </c>
       <c r="F21" s="66" t="n">
         <f aca="false">D21*J21</f>
-        <v>0.0316995492554425</v>
+        <v>0.194844829813115</v>
       </c>
       <c r="G21" s="58" t="n">
         <v>0</v>
@@ -2524,7 +2536,7 @@
       </c>
       <c r="K21" s="62" t="str">
         <f aca="false">IF(AND(D21&gt;$N$9,D20&lt;$N$9),"OK","NOK")</f>
-        <v>NOK</v>
+        <v>OK</v>
       </c>
       <c r="L21" s="62"/>
       <c r="M21" s="75"/>
@@ -2542,8 +2554,8 @@
         <v>0</v>
       </c>
       <c r="D22" s="66" t="n">
-        <f aca="false">D20*(1+J20)</f>
-        <v>6.14661199889654</v>
+        <f aca="false">D21*(1+J21)</f>
+        <v>6.34145682870966</v>
       </c>
       <c r="E22" s="65" t="n">
         <f aca="false">C22*J22</f>
@@ -2551,7 +2563,7 @@
       </c>
       <c r="F22" s="66" t="n">
         <f aca="false">D22*J22</f>
-        <v>0.189973709067787</v>
+        <v>0.19599579001562</v>
       </c>
       <c r="G22" s="58" t="n">
         <v>0</v>
@@ -2570,7 +2582,7 @@
       </c>
       <c r="K22" s="62" t="str">
         <f aca="false">IF(AND(D22&gt;$N$9,D21&lt;$N$9),"OK","NOK")</f>
-        <v>OK</v>
+        <v>NOK</v>
       </c>
       <c r="L22" s="62"/>
       <c r="M22" s="75"/>
@@ -2589,7 +2601,7 @@
       </c>
       <c r="D23" s="66" t="n">
         <f aca="false">D22*(1+J22)</f>
-        <v>6.33658570796433</v>
+        <v>6.53745261872528</v>
       </c>
       <c r="E23" s="65" t="n">
         <f aca="false">C23*J23</f>
@@ -2597,7 +2609,7 @@
       </c>
       <c r="F23" s="66" t="n">
         <f aca="false">D23*J23</f>
-        <v>0.190949107042126</v>
+        <v>0.197002107666091</v>
       </c>
       <c r="G23" s="58" t="n">
         <v>0</v>
@@ -2635,7 +2647,7 @@
       </c>
       <c r="D24" s="66" t="n">
         <f aca="false">D23*(1+J23)</f>
-        <v>6.52753481500646</v>
+        <v>6.73445472639137</v>
       </c>
       <c r="E24" s="65" t="n">
         <f aca="false">C24*J24</f>
@@ -2643,7 +2655,7 @@
       </c>
       <c r="F24" s="66" t="n">
         <f aca="false">D24*J24</f>
-        <v>0.191785659741275</v>
+        <v>0.197865178708732</v>
       </c>
       <c r="G24" s="58" t="n">
         <v>0</v>
@@ -2681,7 +2693,7 @@
       </c>
       <c r="D25" s="66" t="n">
         <f aca="false">D24*(1+J24)</f>
-        <v>6.71932047474773</v>
+        <v>6.9323199051001</v>
       </c>
       <c r="E25" s="65" t="n">
         <f aca="false">C25*J25</f>
@@ -2689,7 +2701,7 @@
       </c>
       <c r="F25" s="66" t="n">
         <f aca="false">D25*J25</f>
-        <v>0.192485005919459</v>
+        <v>0.198586693845537</v>
       </c>
       <c r="G25" s="58" t="n">
         <v>0</v>
@@ -2727,7 +2739,7 @@
       </c>
       <c r="D26" s="66" t="n">
         <f aca="false">D25*(1+J25)</f>
-        <v>6.91180548066719</v>
+        <v>7.13090659894564</v>
       </c>
       <c r="E26" s="65" t="n">
         <f aca="false">C26*J26</f>
@@ -2735,7 +2747,7 @@
       </c>
       <c r="F26" s="66" t="n">
         <f aca="false">D26*J26</f>
-        <v>0.193049051725362</v>
+        <v>0.199168619649247</v>
       </c>
       <c r="G26" s="58" t="n">
         <v>0</v>
@@ -2773,7 +2785,7 @@
       </c>
       <c r="D27" s="66" t="n">
         <f aca="false">D26*(1+J26)</f>
-        <v>7.10485453239255</v>
+        <v>7.33007521859489</v>
       </c>
       <c r="E27" s="65" t="n">
         <f aca="false">C27*J27</f>
@@ -2781,7 +2793,7 @@
       </c>
       <c r="F27" s="66" t="n">
         <f aca="false">D27*J27</f>
-        <v>0.19347995225161</v>
+        <v>0.19961317952795</v>
       </c>
       <c r="G27" s="58" t="n">
         <v>0</v>
@@ -2819,7 +2831,7 @@
       </c>
       <c r="D28" s="66" t="n">
         <f aca="false">D27*(1+J27)</f>
-        <v>7.29833448464416</v>
+        <v>7.52968839812284</v>
       </c>
       <c r="E28" s="65" t="n">
         <f aca="false">C28*J28</f>
@@ -2827,7 +2839,7 @@
       </c>
       <c r="F28" s="66" t="n">
         <f aca="false">D28*J28</f>
-        <v>0.193780093053006</v>
+        <v>0.199922834657464</v>
       </c>
       <c r="G28" s="58" t="n">
         <v>0</v>
@@ -2865,7 +2877,7 @@
       </c>
       <c r="D29" s="66" t="n">
         <f aca="false">D28*(1+J28)</f>
-        <v>7.49211457769717</v>
+        <v>7.7296112327803</v>
       </c>
       <c r="E29" s="65" t="n">
         <f aca="false">C29*J29</f>
@@ -2873,7 +2885,7 @@
       </c>
       <c r="F29" s="66" t="n">
         <f aca="false">D29*J29</f>
-        <v>0.193952071737392</v>
+        <v>0.200100264988627</v>
       </c>
       <c r="G29" s="58" t="n">
         <v>0</v>
@@ -2911,7 +2923,7 @@
       </c>
       <c r="D30" s="66" t="n">
         <f aca="false">D29*(1+J29)</f>
-        <v>7.68606664943456</v>
+        <v>7.92971149776893</v>
       </c>
       <c r="E30" s="65" t="n">
         <f aca="false">C30*J30</f>
@@ -2919,7 +2931,7 @@
       </c>
       <c r="F30" s="66" t="n">
         <f aca="false">D30*J30</f>
-        <v>0.193998679724145</v>
+        <v>0.200148350427552</v>
       </c>
       <c r="G30" s="58" t="n">
         <v>0</v>
@@ -2947,7 +2959,7 @@
       <c r="P30" s="50"/>
       <c r="Q30" s="75"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="55" t="n">
         <v>29</v>
       </c>
@@ -2957,7 +2969,7 @@
       </c>
       <c r="D31" s="66" t="n">
         <f aca="false">D30*(1+J30)</f>
-        <v>7.88006532915871</v>
+        <v>8.12985984819648</v>
       </c>
       <c r="E31" s="65" t="n">
         <f aca="false">C31*J31</f>
@@ -2965,7 +2977,7 @@
       </c>
       <c r="F31" s="66" t="n">
         <f aca="false">D31*J31</f>
-        <v>0.193922884256609</v>
+        <v>0.200070152277859</v>
       </c>
       <c r="G31" s="58" t="n">
         <v>0</v>
@@ -2993,7 +3005,7 @@
       <c r="P31" s="50"/>
       <c r="Q31" s="75"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="55" t="n">
         <v>30</v>
       </c>
@@ -3003,7 +3015,7 @@
       </c>
       <c r="D32" s="66" t="n">
         <f aca="false">D31*(1+J31)</f>
-        <v>8.07398821341532</v>
+        <v>8.32993000047434</v>
       </c>
       <c r="E32" s="65" t="n">
         <f aca="false">C32*J32</f>
@@ -3011,7 +3023,7 @@
       </c>
       <c r="F32" s="66" t="n">
         <f aca="false">D32*J32</f>
-        <v>0.193727810746128</v>
+        <v>0.199868895025024</v>
       </c>
       <c r="G32" s="58" t="n">
         <v>0</v>
@@ -3039,7 +3051,7 @@
       <c r="P32" s="50"/>
       <c r="Q32" s="75"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="55" t="n">
         <v>31</v>
       </c>
@@ -3049,7 +3061,7 @@
       </c>
       <c r="D33" s="66" t="n">
         <f aca="false">D32*(1+J32)</f>
-        <v>8.26771602416144</v>
+        <v>8.52979889549936</v>
       </c>
       <c r="E33" s="65" t="n">
         <f aca="false">C33*J33</f>
@@ -3057,7 +3069,7 @@
       </c>
       <c r="F33" s="66" t="n">
         <f aca="false">D33*J33</f>
-        <v>0.193416725516882</v>
+        <v>0.19954794853423</v>
       </c>
       <c r="G33" s="58" t="n">
         <v>0</v>
@@ -3085,7 +3097,7 @@
       <c r="P33" s="50"/>
       <c r="Q33" s="75"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="55" t="n">
         <v>32</v>
       </c>
@@ -3095,7 +3107,7 @@
       </c>
       <c r="D34" s="66" t="n">
         <f aca="false">D33*(1+J33)</f>
-        <v>8.46113274967832</v>
+        <v>8.72934684403359</v>
       </c>
       <c r="E34" s="65" t="n">
         <f aca="false">C34*J34</f>
@@ -3103,7 +3115,7 @@
       </c>
       <c r="F34" s="66" t="n">
         <f aca="false">D34*J34</f>
-        <v>0.19299301901254</v>
+        <v>0.199110810724684</v>
       </c>
       <c r="G34" s="58" t="n">
         <v>0</v>
@@ -3131,7 +3143,7 @@
       <c r="P34" s="50"/>
       <c r="Q34" s="75"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="55" t="n">
         <v>33</v>
       </c>
@@ -3141,7 +3153,7 @@
       </c>
       <c r="D35" s="66" t="n">
         <f aca="false">D34*(1+J34)</f>
-        <v>8.65412576869086</v>
+        <v>8.92845765475828</v>
       </c>
       <c r="E35" s="65" t="n">
         <f aca="false">C35*J35</f>
@@ -3149,7 +3161,7 @@
       </c>
       <c r="F35" s="66" t="n">
         <f aca="false">D35*J35</f>
-        <v>0.19246018951782</v>
+        <v>0.198561090775152</v>
       </c>
       <c r="G35" s="58" t="n">
         <v>0</v>
@@ -3177,7 +3189,7 @@
       <c r="P35" s="50"/>
       <c r="Q35" s="75"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="55" t="n">
         <v>34</v>
       </c>
@@ -3187,7 +3199,7 @@
       </c>
       <c r="D36" s="66" t="n">
         <f aca="false">D35*(1+J35)</f>
-        <v>8.84658595820869</v>
+        <v>9.12701874553343</v>
       </c>
       <c r="E36" s="65" t="n">
         <f aca="false">C36*J36</f>
@@ -3195,7 +3207,7 @@
       </c>
       <c r="F36" s="66" t="n">
         <f aca="false">D36*J36</f>
-        <v>0.191821827440472</v>
+        <v>0.19790249290769</v>
       </c>
       <c r="G36" s="58" t="n">
         <v>0</v>
@@ -3223,7 +3235,7 @@
       <c r="P36" s="50"/>
       <c r="Q36" s="75"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="55" t="n">
         <v>35</v>
       </c>
@@ -3233,7 +3245,7 @@
       </c>
       <c r="D37" s="66" t="n">
         <f aca="false">D36*(1+J36)</f>
-        <v>9.03840778564916</v>
+        <v>9.32492123844112</v>
       </c>
       <c r="E37" s="65" t="n">
         <f aca="false">C37*J37</f>
@@ -3241,7 +3253,7 @@
       </c>
       <c r="F37" s="66" t="n">
         <f aca="false">D37*J37</f>
-        <v>0.191081600191992</v>
+        <v>0.197138800789087</v>
       </c>
       <c r="G37" s="58" t="n">
         <v>0</v>
@@ -3269,7 +3281,7 @@
       <c r="P37" s="50"/>
       <c r="Q37" s="75"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="55" t="n">
         <v>36</v>
       </c>
@@ -3279,7 +3291,7 @@
       </c>
       <c r="D38" s="66" t="n">
         <f aca="false">D37*(1+J37)</f>
-        <v>9.22948938584115</v>
+        <v>9.52206003923021</v>
       </c>
       <c r="E38" s="65" t="n">
         <f aca="false">C38*J38</f>
@@ -3287,7 +3299,7 @@
       </c>
       <c r="F38" s="66" t="n">
         <f aca="false">D38*J38</f>
-        <v>0.19024323769853</v>
+        <v>0.19627386258247</v>
       </c>
       <c r="G38" s="58" t="n">
         <v>0</v>
@@ -3315,7 +3327,7 @@
       <c r="P38" s="50"/>
       <c r="Q38" s="75"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="55" t="n">
         <v>37</v>
       </c>
@@ -3325,7 +3337,7 @@
       </c>
       <c r="D39" s="66" t="n">
         <f aca="false">D38*(1+J38)</f>
-        <v>9.41973262353968</v>
+        <v>9.71833390181268</v>
       </c>
       <c r="E39" s="65" t="n">
         <f aca="false">C39*J39</f>
@@ -3333,7 +3345,7 @@
       </c>
       <c r="F39" s="66" t="n">
         <f aca="false">D39*J39</f>
-        <v>0.189310518567058</v>
+        <v>0.195311576674948</v>
       </c>
       <c r="G39" s="58" t="n">
         <v>0</v>
@@ -3361,7 +3373,7 @@
       <c r="P39" s="50"/>
       <c r="Q39" s="75"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="55" t="n">
         <v>38</v>
       </c>
@@ -3371,7 +3383,7 @@
       </c>
       <c r="D40" s="66" t="n">
         <f aca="false">D39*(1+J39)</f>
-        <v>9.60904314210674</v>
+        <v>9.91364547848763</v>
       </c>
       <c r="E40" s="65" t="n">
         <f aca="false">C40*J40</f>
@@ -3379,7 +3391,7 @@
       </c>
       <c r="F40" s="66" t="n">
         <f aca="false">D40*J40</f>
-        <v>0.18828725692586</v>
+        <v>0.194255878100953</v>
       </c>
       <c r="G40" s="58" t="n">
         <v>0</v>
@@ -3407,7 +3419,7 @@
       <c r="P40" s="50"/>
       <c r="Q40" s="75"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="55" t="n">
         <v>39</v>
       </c>
@@ -3417,7 +3429,7 @@
       </c>
       <c r="D41" s="66" t="n">
         <f aca="false">D40*(1+J40)</f>
-        <v>9.7973303990326</v>
+        <v>10.1079013565886</v>
       </c>
       <c r="E41" s="65" t="n">
         <f aca="false">C41*J41</f>
@@ -3425,7 +3437,7 @@
       </c>
       <c r="F41" s="66" t="n">
         <f aca="false">D41*J41</f>
-        <v>0.187177289952837</v>
+        <v>0.193110725675197</v>
       </c>
       <c r="G41" s="58" t="n">
         <v>0</v>
@@ -3453,7 +3465,7 @@
       <c r="P41" s="50"/>
       <c r="Q41" s="75"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="55" t="n">
         <v>40</v>
       </c>
@@ -3463,7 +3475,7 @@
       </c>
       <c r="D42" s="66" t="n">
         <f aca="false">D41*(1+J41)</f>
-        <v>9.98450768898543</v>
+        <v>10.3010120822638</v>
       </c>
       <c r="E42" s="65" t="n">
         <f aca="false">C42*J42</f>
@@ -3471,7 +3483,7 @@
       </c>
       <c r="F42" s="66" t="n">
         <f aca="false">D42*J42</f>
-        <v>0.185984466099973</v>
+        <v>0.191880089843857</v>
       </c>
       <c r="G42" s="58" t="n">
         <v>0</v>
@@ -3499,7 +3511,7 @@
       <c r="P42" s="50"/>
       <c r="Q42" s="75"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="55" t="n">
         <v>41</v>
       </c>
@@ -3509,7 +3521,7 @@
       </c>
       <c r="D43" s="66" t="n">
         <f aca="false">D42*(1+J42)</f>
-        <v>10.1704921550854</v>
+        <v>10.4928921721076</v>
       </c>
       <c r="E43" s="65" t="n">
         <f aca="false">C43*J43</f>
@@ -3517,7 +3529,7 @@
       </c>
       <c r="F43" s="66" t="n">
         <f aca="false">D43*J43</f>
-        <v>0.184712634017611</v>
+        <v>0.190567941257755</v>
       </c>
       <c r="G43" s="58" t="n">
         <v>0</v>
@@ -3545,7 +3557,7 @@
       <c r="P43" s="50"/>
       <c r="Q43" s="75"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="55" t="n">
         <v>42</v>
       </c>
@@ -3555,7 +3567,7 @@
       </c>
       <c r="D44" s="66" t="n">
         <f aca="false">D43*(1+J43)</f>
-        <v>10.355204789103</v>
+        <v>10.6834601133654</v>
       </c>
       <c r="E44" s="65" t="n">
         <f aca="false">C44*J44</f>
@@ -3563,7 +3575,7 @@
       </c>
       <c r="F44" s="66" t="n">
         <f aca="false">D44*J44</f>
-        <v>0.183365632177872</v>
+        <v>0.18917824006685</v>
       </c>
       <c r="G44" s="58" t="n">
         <v>0</v>
@@ -3591,7 +3603,7 @@
       <c r="P44" s="50"/>
       <c r="Q44" s="75"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="55" t="n">
         <v>43</v>
       </c>
@@ -3601,7 +3613,7 @@
       </c>
       <c r="D45" s="66" t="n">
         <f aca="false">D44*(1+J44)</f>
-        <v>10.5385704212809</v>
+        <v>10.8726383534322</v>
       </c>
       <c r="E45" s="65" t="n">
         <f aca="false">C45*J45</f>
@@ -3609,7 +3621,7 @@
       </c>
       <c r="F45" s="66" t="n">
         <f aca="false">D45*J45</f>
-        <v>0.181947279192695</v>
+        <v>0.187714925931358</v>
       </c>
       <c r="G45" s="58" t="n">
         <v>0</v>
@@ -3637,7 +3649,7 @@
       <c r="P45" s="50"/>
       <c r="Q45" s="75"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="55" t="n">
         <v>44</v>
       </c>
@@ -3647,7 +3659,7 @@
       </c>
       <c r="D46" s="66" t="n">
         <f aca="false">D45*(1+J45)</f>
-        <v>10.7205177004736</v>
+        <v>11.0603532793636</v>
       </c>
       <c r="E46" s="65" t="n">
         <f aca="false">C46*J46</f>
@@ -3655,7 +3667,7 @@
       </c>
       <c r="F46" s="66" t="n">
         <f aca="false">D46*J46</f>
-        <v>0.180461364818464</v>
+        <v>0.186181908741231</v>
       </c>
       <c r="G46" s="58" t="n">
         <v>0</v>
@@ -3683,7 +3695,7 @@
       <c r="P46" s="50"/>
       <c r="Q46" s="75"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="55" t="n">
         <v>45</v>
       </c>
@@ -3693,7 +3705,7 @@
       </c>
       <c r="D47" s="66" t="n">
         <f aca="false">D46*(1+J46)</f>
-        <v>10.9009790652921</v>
+        <v>11.2465351881048</v>
       </c>
       <c r="E47" s="65" t="n">
         <f aca="false">C47*J47</f>
@@ -3701,7 +3713,7 @@
       </c>
       <c r="F47" s="66" t="n">
         <f aca="false">D47*J47</f>
-        <v>0.1789116416361</v>
+        <v>0.184583060032516</v>
       </c>
       <c r="G47" s="58" t="n">
         <v>0</v>
@@ -3729,7 +3741,7 @@
       <c r="P47" s="50"/>
       <c r="Q47" s="75"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="55" t="n">
         <v>46</v>
       </c>
@@ -3739,7 +3751,7 @@
       </c>
       <c r="D48" s="66" t="n">
         <f aca="false">D47*(1+J47)</f>
-        <v>11.0798907069281</v>
+        <v>11.4311182481373</v>
       </c>
       <c r="E48" s="65" t="n">
         <f aca="false">C48*J48</f>
@@ -3747,7 +3759,7 @@
       </c>
       <c r="F48" s="66" t="n">
         <f aca="false">D48*J48</f>
-        <v>0.177301817392783</v>
+        <v>0.182922205086305</v>
       </c>
       <c r="G48" s="58" t="n">
         <v>0</v>
@@ -3775,7 +3787,7 @@
       <c r="P48" s="50"/>
       <c r="Q48" s="75"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="55" t="n">
         <v>47</v>
       </c>
@@ -3785,7 +3797,7 @@
       </c>
       <c r="D49" s="66" t="n">
         <f aca="false">D48*(1+J48)</f>
-        <v>11.2571925243209</v>
+        <v>11.6140404532236</v>
       </c>
       <c r="E49" s="65" t="n">
         <f aca="false">C49*J49</f>
@@ -3793,7 +3805,7 @@
       </c>
       <c r="F49" s="66" t="n">
         <f aca="false">D49*J49</f>
-        <v>0.175635547989039</v>
+        <v>0.181203115693524</v>
       </c>
       <c r="G49" s="58" t="n">
         <v>0</v>
@@ -3821,7 +3833,7 @@
       <c r="P49" s="50"/>
       <c r="Q49" s="75"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="55" t="n">
         <v>48</v>
       </c>
@@ -3831,7 +3843,7 @@
       </c>
       <c r="D50" s="66" t="n">
         <f aca="false">D49*(1+J49)</f>
-        <v>11.43282807231</v>
+        <v>11.7952435689172</v>
       </c>
       <c r="E50" s="65" t="n">
         <f aca="false">C50*J50</f>
@@ -3839,7 +3851,7 @@
       </c>
       <c r="F50" s="66" t="n">
         <f aca="false">D50*J50</f>
-        <v>0.17391643109294</v>
+        <v>0.179429503566701</v>
       </c>
       <c r="G50" s="58" t="n">
         <v>0</v>
@@ -3867,7 +3879,7 @@
       <c r="P50" s="50"/>
       <c r="Q50" s="75"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="55" t="n">
         <v>49</v>
       </c>
@@ -3877,7 +3889,7 @@
       </c>
       <c r="D51" s="66" t="n">
         <f aca="false">D50*(1+J50)</f>
-        <v>11.6067445034029</v>
+        <v>11.9746730724839</v>
       </c>
       <c r="E51" s="65" t="n">
         <f aca="false">C51*J51</f>
@@ -3885,7 +3897,7 @@
       </c>
       <c r="F51" s="66" t="n">
         <f aca="false">D51*J51</f>
-        <v>0.172148000361365</v>
+        <v>0.177605014378046</v>
       </c>
       <c r="G51" s="58" t="n">
         <v>0</v>
@@ -3913,7 +3925,7 @@
       <c r="P51" s="50"/>
       <c r="Q51" s="75"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="81" t="n">
         <v>50</v>
       </c>
@@ -3923,24 +3935,24 @@
       </c>
       <c r="D52" s="82" t="n">
         <f aca="false">D51*(1+J51)</f>
-        <v>11.7788925037643</v>
+        <v>12.1522780868619</v>
       </c>
       <c r="E52" s="83" t="n">
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
-        <v>0.170333720246879</v>
+        <v>0.175733222401707</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -3976,7 +3988,7 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -4043,7 +4055,7 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87"/>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>39</v>
@@ -4086,11 +4098,11 @@
         <v>0.05</v>
       </c>
       <c r="K3" s="62"/>
-      <c r="L3" s="87"/>
+      <c r="L3" s="88"/>
       <c r="M3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="86"/>
+      <c r="N3" s="87"/>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
         <v>41</v>
@@ -4137,7 +4149,7 @@
         <f aca="false">IF(AND(D4&gt;$N$9,D3&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L4" s="87"/>
+      <c r="L4" s="88"/>
       <c r="M4" s="63"/>
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
@@ -4186,7 +4198,7 @@
         <f aca="false">IF(AND(D5&gt;$N$9,D4&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L5" s="87"/>
+      <c r="L5" s="88"/>
       <c r="M5" s="51" t="s">
         <v>43</v>
       </c>
@@ -4240,7 +4252,7 @@
         <f aca="false">IF(AND(D6&gt;$N$9,D5&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L6" s="87"/>
+      <c r="L6" s="88"/>
       <c r="M6" s="51" t="s">
         <v>45</v>
       </c>
@@ -4289,7 +4301,7 @@
         <f aca="false">IF(AND(D7&gt;$N$9,D6&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L7" s="87"/>
+      <c r="L7" s="88"/>
       <c r="M7" s="51" t="s">
         <v>44</v>
       </c>
@@ -4343,7 +4355,7 @@
         <f aca="false">IF(AND(D8&gt;$N$9,D7&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L8" s="87"/>
+      <c r="L8" s="88"/>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
       <c r="O8" s="53"/>
@@ -4387,7 +4399,7 @@
         <f aca="false">IF(AND(D9&gt;$N$9,D8&lt;$N$9),"OK","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="51" t="s">
         <v>47</v>
       </c>
@@ -6324,7 +6336,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>12.1522780868619</v>
       </c>
@@ -6332,18 +6344,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.175733222401707</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -6376,7 +6388,7 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -6436,7 +6448,7 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87"/>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>39</v>
@@ -6484,7 +6496,7 @@
       <c r="M3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
         <v>41</v>
@@ -8726,7 +8738,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>18.2284171302929</v>
       </c>
@@ -8734,18 +8746,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.263599833602561</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -8778,7 +8790,7 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -8838,7 +8850,7 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87"/>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>39</v>
@@ -8886,7 +8898,7 @@
       <c r="M3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
         <v>41</v>
@@ -11122,7 +11134,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>24.3045561737238</v>
       </c>
@@ -11130,18 +11142,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.351466444803415</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
@@ -11234,7 +11246,7 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="87"/>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>39</v>
@@ -11284,7 +11296,7 @@
       <c r="M3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
         <v>41</v>
@@ -11617,7 +11629,7 @@
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="89" t="n">
+      <c r="D10" s="90" t="n">
         <f aca="false">D9*(1+J9)</f>
         <v>12.363059106241</v>
       </c>
@@ -13541,7 +13553,7 @@
         <f aca="false">IF(G51&lt;&gt;0,C51+G51,)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="82" t="n">
+      <c r="D52" s="84" t="n">
         <f aca="false">D51*(1+J51)</f>
         <v>36.4568342605857</v>
       </c>
@@ -13549,18 +13561,18 @@
         <f aca="false">C52*J52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="82" t="n">
+      <c r="F52" s="84" t="n">
         <f aca="false">D52*J52</f>
         <v>0.527199667205122</v>
       </c>
       <c r="G52" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="84" t="n">
+      <c r="H52" s="85" t="n">
         <f aca="false">IF(G52=0,,G52/C52)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="85" t="n">
+      <c r="I52" s="86" t="n">
         <f aca="false">IF(G52=0,,G52-F52)</f>
         <v>0</v>
       </c>
